--- a/budget_tracker.xlsx
+++ b/budget_tracker.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puskar\OneDrive - Macquarie University\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puskar\OneDrive - Macquarie University\Desktop\Puskar Ghimire\Click\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA59C16-C9AF-43A2-876C-44FB5A275397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01615AC8-BC20-4A36-971E-72ABC463E29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B3538EA-385A-4FCE-8805-6AFD14498AE5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2B3538EA-385A-4FCE-8805-6AFD14498AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Charts" sheetId="3" r:id="rId2"/>
+    <sheet name="Questions" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$23:$A$29</definedName>
     <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$23:$B$29</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$23:$A$29</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$B$23:$B$29</definedName>
     <definedName name="_xlchart.v5.0" hidden="1">Sheet1!$A$6:$A$11</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">Sheet1!$B$6:$B$11</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">Sheet1!$A$6:$A$11</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">Sheet1!$B$6:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -406,12 +411,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -421,6 +420,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -903,6 +908,446 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Expenses %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30161132983377076"/>
+          <c:y val="0.17819671385007513"/>
+          <c:w val="0.39677734033245843"/>
+          <c:h val="0.66053106367484415"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E81F-49C5-9C05-2BA847DB9D3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E81F-49C5-9C05-2BA847DB9D3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E81F-49C5-9C05-2BA847DB9D3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8354546301470044E-3"/>
+                  <c:y val="-0.26419466975666289"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E81F-49C5-9C05-2BA847DB9D3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>% Saving</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98684210526315785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E81F-49C5-9C05-2BA847DB9D3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80268556608486175"/>
+          <c:y val="0.45083384275690913"/>
+          <c:w val="0.15291352434430511"/>
+          <c:h val="0.1564321493417031"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -1376,7 +1821,561 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="1" i="0">
+                <a:pattFill prst="pct5">
+                  <a:fgClr>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="95000"/>
+                    </a:sysClr>
+                  </a:fgClr>
+                  <a:bgClr>
+                    <a:schemeClr val="bg1"/>
+                  </a:bgClr>
+                </a:pattFill>
+                <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AU" b="1">
+              <a:pattFill prst="pct5">
+                <a:fgClr>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="900" b="1" i="0">
+              <a:pattFill prst="pct5">
+                <a:fgClr>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AU" b="1">
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v5.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v5.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>                                                                                                     </cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>                                                                                                     </a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{B0023493-CA77-4974-8CCC-1EB4295B1148}">
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="outEnd">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="95000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+            <cx:dataLabel idx="0">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="800" b="1"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF">
+                          <a:lumMod val="95000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    </a:rPr>
+                    <a:t> $100,000 </a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+              <cx:visibility seriesName="0" categoryName="0" value="1"/>
+              <cx:separator>, </cx:separator>
+            </cx:dataLabel>
+            <cx:dataLabel idx="1">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="800" b="1"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF">
+                          <a:lumMod val="95000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    </a:rPr>
+                    <a:t>-$20,000 </a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+              <cx:visibility seriesName="0" categoryName="0" value="1"/>
+              <cx:separator>, </cx:separator>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility connectorLines="0"/>
+            <cx:subtotals>
+              <cx:idx val="0"/>
+              <cx:idx val="5"/>
+            </cx:subtotals>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="F2F2F2"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AU" sz="1000"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
       <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="F2F2F2"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AU" sz="1000"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF">
+                <a:lumMod val="95000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:fmtOvrs>
+    <cx:fmtOvr idx="1">
+      <cx:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+    <cx:fmtOvr idx="2">
+      <cx:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+    <cx:fmtOvr idx="0">
+      <cx:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+  </cx:fmtOvrs>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Expenses</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr b="1">
+              <a:pattFill prst="pct5">
+                <a:fgClr>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:pattFill prst="pct5">
+                <a:fgClr>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Expenses</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{F42202EB-E0E3-4997-BE5C-EC84D8DFFC01}">
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:blipFill>
+                <a:blip r:embed="rId1">
+                  <a:extLst>
+                    <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                      <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:blipFill>
+                <a:blip r:embed="rId3">
+                  <a:extLst>
+                    <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                      <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:blipFill>
+                <a:blip r:embed="rId5">
+                  <a:extLst>
+                    <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                      <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:blipFill>
+                <a:blip r:embed="rId7">
+                  <a:extLst>
+                    <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                      <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:blipFill>
+                <a:blip r:embed="rId9">
+                  <a:extLst>
+                    <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                      <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="5">
+            <cx:spPr>
+              <a:blipFill>
+                <a:blip r:embed="rId11">
+                  <a:extLst>
+                    <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                      <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="6">
+            <cx:spPr>
+              <a:blipFill>
+                <a:blip r:embed="rId13">
+                  <a:extLst>
+                    <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                      <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels>
+            <cx:spPr>
+              <a:noFill/>
+            </cx:spPr>
+            <cx:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="900" b="1" i="0" baseline="0">
+                    <a:pattFill prst="pct5">
+                      <a:fgClr>
+                        <a:sysClr val="window" lastClr="FFFFFF">
+                          <a:lumMod val="95000"/>
+                        </a:sysClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="bg1"/>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AU" sz="900" b="1" baseline="0">
+                  <a:pattFill prst="pct5">
+                    <a:fgClr>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="95000"/>
+                      </a:sysClr>
+                    </a:fgClr>
+                    <a:bgClr>
+                      <a:schemeClr val="bg1"/>
+                    </a:bgClr>
+                  </a:pattFill>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.5"/>
         <cx:tickLabels/>
         <cx:txPr>
@@ -1574,6 +2573,123 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="372">
   <cs:axisTitle>
@@ -2657,6 +3773,1584 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="372">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="427">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3201,8 +5895,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3524249" y="554036"/>
-              <a:ext cx="4867275" cy="2541589"/>
+              <a:off x="3524249" y="550861"/>
+              <a:ext cx="4870450" cy="2544764"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3280,7 +5974,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3522662" y="3640138"/>
-              <a:ext cx="4878388" cy="2700337"/>
+              <a:ext cx="4878388" cy="2719387"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3333,6 +6027,205 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125414</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5497AC-9660-4EB8-AC26-FFF86B3E45FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="615950" y="114300"/>
+              <a:ext cx="4870450" cy="2544764"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>303213</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C352A7-F6AA-4BB1-BFBF-51C117C459CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11274425" y="66675"/>
+              <a:ext cx="4878388" cy="2540000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>458788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C86A50-5F4D-4AEF-9723-4FC96C3DFB45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3668,8 +6561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D662DD-BAF2-48EB-9D61-1C452A169E0D}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3679,32 +6572,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -3763,8 +6656,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -3772,46 +6665,46 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <f>SUM(B24:B29)</f>
         <v>75000</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>38000</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>18000</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>5000</v>
       </c>
       <c r="M27" t="s">
@@ -3822,18 +6715,18 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>1000</v>
       </c>
     </row>
@@ -3879,14 +6772,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>90000</formula>
+  <conditionalFormatting sqref="B5:B10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>79000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>79000</formula>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>90000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3895,6 +6788,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188F4E66-6FEB-4B1D-8B2D-2078C9D77F39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BB1778-B941-4E81-937E-0E81A1D691E7}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3905,99 +6813,99 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/budget_tracker.xlsx
+++ b/budget_tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puskar\OneDrive - Macquarie University\Desktop\Puskar Ghimire\Click\ExcelProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/puskar_ghimire_students_mq_edu_au/Documents/Desktop/Puskar Ghimire/Click/ExcelProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01615AC8-BC20-4A36-971E-72ABC463E29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{01615AC8-BC20-4A36-971E-72ABC463E29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA44224F-8E37-4876-B0F6-0EC0A7C28911}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2B3538EA-385A-4FCE-8805-6AFD14498AE5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B3538EA-385A-4FCE-8805-6AFD14498AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6006,16 +6006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11111</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>417511</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>30162</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403224</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6092,8 +6092,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="615950" y="114300"/>
-              <a:ext cx="4870450" cy="2544764"/>
+              <a:off x="619125" y="114300"/>
+              <a:ext cx="4867275" cy="2541589"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6170,8 +6170,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11274425" y="66675"/>
-              <a:ext cx="4878388" cy="2540000"/>
+              <a:off x="11274425" y="63500"/>
+              <a:ext cx="4878388" cy="2543175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6561,8 +6561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D662DD-BAF2-48EB-9D61-1C452A169E0D}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6791,7 +6791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188F4E66-6FEB-4B1D-8B2D-2078C9D77F39}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -6813,90 +6813,90 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/budget_tracker.xlsx
+++ b/budget_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/puskar_ghimire_students_mq_edu_au/Documents/Desktop/Puskar Ghimire/Click/ExcelProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{01615AC8-BC20-4A36-971E-72ABC463E29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA44224F-8E37-4876-B0F6-0EC0A7C28911}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{01615AC8-BC20-4A36-971E-72ABC463E29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E22EB1C7-1A24-42D1-9E17-53051EE2A940}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B3538EA-385A-4FCE-8805-6AFD14498AE5}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Questions" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$23:$A$29</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$23:$B$29</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$23:$A$29</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$B$23:$B$29</definedName>
-    <definedName name="_xlchart.v5.0" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Sheet1!$B$6:$B$11</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Sheet1!$B$6:$B$11</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$23:$B$29</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$23:$C$29</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$B$23:$B$29</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$23:$C$29</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Sheet1!$B$6:$B$11</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Sheet1!$C$6:$C$11</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">Sheet1!$B$6:$B$11</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">Sheet1!$C$6:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -760,7 +760,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$32:$A$33</c:f>
+              <c:f>Sheet1!$B$32:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -774,7 +774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$B$33</c:f>
+              <c:f>Sheet1!$C$32:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1200,7 +1200,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$32:$A$33</c:f>
+              <c:f>Sheet1!$B$32:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1214,7 +1214,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$B$33</c:f>
+              <c:f>Sheet1!$C$32:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1353,10 +1353,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.0</cx:f>
+        <cx:f>_xlchart.v5.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v5.1</cx:f>
+        <cx:f>_xlchart.v5.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1598,10 +1598,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.2</cx:f>
+        <cx:f>_xlchart.v2.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.3</cx:f>
+        <cx:f>_xlchart.v2.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5850,16 +5850,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>11111</xdr:rowOff>
+      <xdr:rowOff>11110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
@@ -5895,8 +5895,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3524249" y="550861"/>
-              <a:ext cx="4870450" cy="2544764"/>
+              <a:off x="3524249" y="554035"/>
+              <a:ext cx="4870450" cy="2855914"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5928,13 +5928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>608012</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
@@ -6006,13 +6006,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>417511</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>403224</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
@@ -6559,23 +6559,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D662DD-BAF2-48EB-9D61-1C452A169E0D}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -6585,9 +6584,9 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -6598,186 +6597,187 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <f>-20%*B6</f>
+      <c r="C7" s="5">
+        <f>-20%*C6</f>
         <v>-20000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="5">
         <v>-6000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="5">
         <v>-10000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C10" s="5">
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8">
-        <f>SUM(B6:B10)</f>
+      <c r="C11" s="8">
+        <f>SUM(C6:C10)</f>
         <v>76000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="10"/>
+    <row r="22" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="12">
-        <f>SUM(B24:B29)</f>
+      <c r="C23" s="12">
+        <f>SUM(C24:C29)</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="14">
+      <c r="C24" s="14">
         <v>38000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14">
+      <c r="C25" s="14">
         <v>18000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14">
+      <c r="C26" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="14">
+      <c r="C27" s="14">
         <v>5000</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>23</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="14">
+      <c r="C28" s="14">
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="16">
+      <c r="C29" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="7">
-        <f>B11-B23</f>
+      <c r="C31" s="7">
+        <f>C11-C23</f>
         <v>1000</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="9">
-        <f>B31/B11</f>
+      <c r="C32" s="9">
+        <f>C31/C11</f>
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="9">
-        <f>100%-B32</f>
+      <c r="C33" s="9">
+        <f>100%-C32</f>
         <v>0.98684210526315785</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:B29">
-    <sortCondition descending="1" ref="B23:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:C29">
+    <sortCondition descending="1" ref="C23:C29"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="B1:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:B10">
+  <conditionalFormatting sqref="C5:C10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>79000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="C6">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>90000</formula>
     </cfRule>
